--- a/supp_data/TCGA.sig.pathway.significant.interactions.xlsx
+++ b/supp_data/TCGA.sig.pathway.significant.interactions.xlsx
@@ -58,6 +58,9 @@
     <t xml:space="preserve">APOBEC</t>
   </si>
   <si>
+    <t xml:space="preserve">CL SBS5</t>
+  </si>
+  <si>
     <t xml:space="preserve">HR</t>
   </si>
   <si>
@@ -70,9 +73,6 @@
     <t xml:space="preserve">SBS29</t>
   </si>
   <si>
-    <t xml:space="preserve">SBS5</t>
-  </si>
-  <si>
     <t xml:space="preserve">p-values</t>
   </si>
   <si>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">NOTCH</t>
   </si>
   <si>
-    <t xml:space="preserve">Ageing</t>
+    <t xml:space="preserve">CL SBS1</t>
   </si>
   <si>
     <t xml:space="preserve">lm(signature ~ pathway)</t>
@@ -570,7 +570,7 @@
         <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="4">
@@ -578,28 +578,28 @@
         <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>1.59342258184714</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.27165857367048</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.26041241257553</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.15642206805294</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.9459247884244</v>
       </c>
       <c r="H4" t="n">
-        <v>2.13630427617761</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.39250918079484</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -608,28 +608,28 @@
         <v>11</v>
       </c>
       <c r="N4" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>0.003</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>0.013</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0.004</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>0.006</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
         <v>1</v>
@@ -640,61 +640,61 @@
         <v>12</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1.59342258184714</v>
       </c>
       <c r="C5" t="n">
-        <v>2.66111620982402</v>
+        <v>1.27165857367048</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1.26041241257553</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-1.15642206805294</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2.13630427617761</v>
       </c>
       <c r="I5" t="n">
-        <v>3.03969744248977</v>
+        <v>-2.39250918079484</v>
       </c>
       <c r="J5" t="n">
-        <v>2.34481099892437</v>
+        <v>0</v>
       </c>
       <c r="M5" t="s">
         <v>12</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001</v>
+        <v>0.00700000000000001</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0.003</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0.012</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -705,13 +705,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2.66111620982402</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>7.07287407850695</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -723,10 +723,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>3.03969744248977</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2.34481099892437</v>
       </c>
       <c r="M6" t="s">
         <v>13</v>
@@ -735,13 +735,13 @@
         <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0.002</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
         <v>1</v>
@@ -753,10 +753,10 @@
         <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0.002</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>0.00700000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -773,10 +773,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>7.07287407850695</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.6533575629883</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.35969427517584</v>
+        <v>0</v>
       </c>
       <c r="M7" t="s">
         <v>14</v>
@@ -803,10 +803,10 @@
         <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.004</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="V7" t="n">
-        <v>0.00700000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -838,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>-1.6533575629883</v>
       </c>
       <c r="G8" t="n">
-        <v>1.9459247884244</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1.35969427517584</v>
       </c>
       <c r="M8" t="s">
         <v>15</v>
@@ -868,10 +868,10 @@
         <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>0.002</v>
       </c>
       <c r="S8" t="n">
-        <v>0.00700000000000001</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
         <v>1</v>
@@ -880,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="12">
@@ -949,114 +949,114 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.53964349881963</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.39548062873101</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.255659483512604</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.813962701389639</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.460036543962229</v>
+        <v>-0.23771828556004</v>
       </c>
       <c r="L14" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.00600000000000001</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0.017</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="R14" t="n">
         <v>1</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" t="n">
-        <v>0.016</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.53964349881963</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.39548062873101</v>
       </c>
       <c r="F15" t="n">
-        <v>0.255659483512604</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.813962701389639</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.23771828556004</v>
+        <v>0.460036543962229</v>
       </c>
       <c r="L15" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0.016</v>
       </c>
       <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
         <v>0.001</v>
       </c>
-      <c r="R15" t="n">
-        <v>1</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1</v>
-      </c>
       <c r="T15" t="n">
-        <v>0.007</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="16">
@@ -1064,55 +1064,55 @@
         <v>11</v>
       </c>
       <c r="B16" t="n">
-        <v>0.265133562614113</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2208903320949</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.221617796263576</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.200822374955682</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.349095013757502</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.376841928560562</v>
+        <v>0.568981113638045</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.513532725676653</v>
       </c>
       <c r="L16" t="s">
         <v>11</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>0.005</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>0.004</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.00700000000000001</v>
+      </c>
+      <c r="T16" t="n">
         <v>0.001</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1120,111 +1120,111 @@
         <v>12</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.265133562614113</v>
       </c>
       <c r="C17" t="n">
-        <v>0.330275875018815</v>
+        <v>0.2208903320949</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.221617796263576</v>
       </c>
       <c r="E17" t="n">
-        <v>0.233856191391034</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-0.200822374955682</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.349095013757502</v>
       </c>
       <c r="H17" t="n">
-        <v>0.334905266685978</v>
+        <v>-0.376841928560562</v>
       </c>
       <c r="I17" t="n">
-        <v>0.29135489758103</v>
+        <v>0</v>
       </c>
       <c r="L17" t="s">
         <v>12</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0.00600000000000001</v>
+        <v>0.005</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="P17" t="n">
-        <v>0.018</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>0.007</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0.00900000000000001</v>
+        <v>0.008</v>
       </c>
       <c r="T17" t="n">
-        <v>0.00800000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.330275875018815</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.233856191391034</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.331981607079366</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.334905266685978</v>
       </c>
       <c r="I18" t="n">
-        <v>0.261869131334885</v>
+        <v>0.29135489758103</v>
       </c>
       <c r="L18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0.004</v>
       </c>
       <c r="O18" t="n">
         <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0.024</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.002</v>
+        <v>1</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>0.012</v>
       </c>
       <c r="T18" t="n">
-        <v>0.027</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="19">
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-0.331981607079366</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.568981113638045</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.513532725676653</v>
+        <v>0.261869131334885</v>
       </c>
       <c r="L19" t="s">
         <v>15</v>
@@ -1271,16 +1271,16 @@
         <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="R19" t="n">
         <v>1</v>
       </c>
       <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="n">
         <v>0.00900000000000001</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1349,114 +1349,114 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.436619287245912</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.312002964341988</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.813185128751339</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.707571151491002</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.368175242705625</v>
+        <v>-0.798629653272607</v>
       </c>
       <c r="L25" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.00600000000000001</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
         <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>0.017</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="R25" t="n">
         <v>1</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
-        <v>0.016</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>0.436619287245912</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.312002964341988</v>
       </c>
       <c r="F26" t="n">
-        <v>0.813185128751339</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.707571151491002</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.798629653272607</v>
+        <v>0.368175242705625</v>
       </c>
       <c r="L26" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="O26" t="n">
         <v>1</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
+        <v>0.016</v>
       </c>
       <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="n">
         <v>0.001</v>
       </c>
-      <c r="R26" t="n">
-        <v>1</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1</v>
-      </c>
       <c r="T26" t="n">
-        <v>0.007</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="27">
@@ -1464,55 +1464,55 @@
         <v>11</v>
       </c>
       <c r="B27" t="n">
-        <v>1.06911770964635</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1.00218453224289</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.982715248531104</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.873095960091159</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.30259060745892</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>-1.1468219610434</v>
+        <v>0.720770793172478</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.663540296411971</v>
       </c>
       <c r="L27" t="s">
         <v>11</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>0.005</v>
+        <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>0.004</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
       </c>
       <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.00700000000000001</v>
+      </c>
+      <c r="T27" t="n">
         <v>0.001</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1520,111 +1520,111 @@
         <v>12</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1.06911770964635</v>
       </c>
       <c r="C28" t="n">
-        <v>0.727751944466684</v>
+        <v>1.00218453224289</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.982715248531104</v>
       </c>
       <c r="E28" t="n">
-        <v>0.425870267968546</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>-0.873095960091159</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1.30259060745892</v>
       </c>
       <c r="H28" t="n">
-        <v>0.920352720902714</v>
+        <v>-1.1468219610434</v>
       </c>
       <c r="I28" t="n">
-        <v>0.592337053977102</v>
+        <v>0</v>
       </c>
       <c r="L28" t="s">
         <v>12</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0.00600000000000001</v>
+        <v>0.005</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="P28" t="n">
-        <v>0.018</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="n">
-        <v>1</v>
+        <v>0.007</v>
       </c>
       <c r="R28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0.00900000000000001</v>
+        <v>0.008</v>
       </c>
       <c r="T28" t="n">
-        <v>0.00800000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>0.727751944466684</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>0.425870267968546</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.561133207407205</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.920352720902714</v>
       </c>
       <c r="I29" t="n">
-        <v>0.485908733335477</v>
+        <v>0.592337053977102</v>
       </c>
       <c r="L29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>0.004</v>
       </c>
       <c r="O29" t="n">
         <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>0.024</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.002</v>
+        <v>1</v>
       </c>
       <c r="R29" t="n">
         <v>1</v>
       </c>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>0.012</v>
       </c>
       <c r="T29" t="n">
-        <v>0.027</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="30">
@@ -1644,16 +1644,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>-0.561133207407205</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.720770793172478</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.663540296411971</v>
+        <v>0.485908733335477</v>
       </c>
       <c r="L30" t="s">
         <v>15</v>
@@ -1671,16 +1671,16 @@
         <v>1</v>
       </c>
       <c r="Q30" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="R30" t="n">
         <v>1</v>
       </c>
       <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="n">
         <v>0.00900000000000001</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1715,7 +1715,7 @@
         <v>21</v>
       </c>
       <c r="M31" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="N31" t="n">
         <v>1</v>
@@ -1831,16 +1831,16 @@
         <v>1</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="O3" t="n">
         <v>0.001</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
         <v>2.41406405946661</v>
@@ -1869,7 +1869,7 @@
         <v>2.15523151415583</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1916,7 +1916,7 @@
         <v>22</v>
       </c>
       <c r="K5" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
         <v>23</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1972,10 +1972,10 @@
         <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>0.016</v>
+        <v>0.009</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="10">
@@ -2038,131 +2038,131 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.764312348017792</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.769574450540274</v>
+        <v>-0.256278590534233</v>
       </c>
       <c r="D12" t="n">
-        <v>0.444553112306475</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.339236057998609</v>
+        <v>0.274581063103905</v>
       </c>
       <c r="G12" t="n">
-        <v>0.688402721146302</v>
+        <v>-0.390370350946353</v>
       </c>
       <c r="H12" t="n">
-        <v>0.674257216858467</v>
+        <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.764312348017792</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.256278590534233</v>
+        <v>0.769574450540274</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.444553112306475</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.274581063103905</v>
+        <v>-0.339236057998609</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.390370350946353</v>
+        <v>0.688402721146302</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.674257216858467</v>
       </c>
       <c r="K13" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>0.315498528715235</v>
+        <v>0.568407083965297</v>
       </c>
       <c r="C14" t="n">
-        <v>0.335956092706314</v>
+        <v>0.542721922093586</v>
       </c>
       <c r="D14" t="n">
-        <v>0.201849365392396</v>
+        <v>0.250505684936447</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.180821671460783</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.135042001671323</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.289900441094438</v>
+        <v>0.359663110987679</v>
       </c>
       <c r="H14" t="n">
-        <v>0.289396903914602</v>
+        <v>0.492950539413374</v>
       </c>
       <c r="K14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2174,10 +2174,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0.00800000000000001</v>
       </c>
       <c r="P14" t="n">
-        <v>0.002</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -2188,63 +2188,63 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.211454281805767</v>
+        <v>0.315498528715235</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.255073755524634</v>
+        <v>0.335956092706314</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.201849365392396</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-0.135042001671323</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.309254982045701</v>
+        <v>0.289900441094438</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.218001587727915</v>
+        <v>0.289396903914602</v>
       </c>
       <c r="K15" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L15" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0.003</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.19963401038517</v>
+        <v>-0.211454281805767</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.220259880565813</v>
+        <v>-0.255073755524634</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -2256,16 +2256,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.161310668268482</v>
+        <v>-0.309254982045701</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.180518606683481</v>
+        <v>-0.218001587727915</v>
       </c>
       <c r="K16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -2280,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2288,52 +2288,52 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B17" t="n">
-        <v>0.568407083965297</v>
+        <v>-0.19963401038517</v>
       </c>
       <c r="C17" t="n">
-        <v>0.542721922093586</v>
+        <v>-0.220259880565813</v>
       </c>
       <c r="D17" t="n">
-        <v>0.250505684936447</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.180821671460783</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.359663110987679</v>
+        <v>-0.161310668268482</v>
       </c>
       <c r="H17" t="n">
-        <v>0.492950539413374</v>
+        <v>-0.180518606683481</v>
       </c>
       <c r="K17" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="21">
@@ -2396,131 +2396,131 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B23" t="n">
-        <v>0.977562126919018</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.883110579271159</v>
+        <v>-0.4440481650505</v>
       </c>
       <c r="D23" t="n">
-        <v>0.567060650417593</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.453842931049249</v>
+        <v>0.450660651735155</v>
       </c>
       <c r="G23" t="n">
-        <v>0.887896985896357</v>
+        <v>-0.588914885508255</v>
       </c>
       <c r="H23" t="n">
-        <v>0.823309303986555</v>
+        <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
         <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.977562126919018</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.4440481650505</v>
+        <v>0.883110579271159</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.567060650417593</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.450660651735155</v>
+        <v>-0.453842931049249</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.588914885508255</v>
+        <v>0.887896985896357</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.823309303986555</v>
       </c>
       <c r="K24" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" t="n">
-        <v>2.12570479667602</v>
+        <v>1.19985522408268</v>
       </c>
       <c r="C25" t="n">
-        <v>1.94021253591843</v>
+        <v>1.22704010474098</v>
       </c>
       <c r="D25" t="n">
-        <v>1.25845950756484</v>
+        <v>0.660345114837697</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.516245209330757</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.891666564413538</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.94715125760846</v>
+        <v>0.858204041971027</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79844565847016</v>
+        <v>1.12283826754789</v>
       </c>
       <c r="K25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0.00800000000000001</v>
       </c>
       <c r="P25" t="n">
-        <v>0.002</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2546,63 +2546,63 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.705984706386084</v>
+        <v>2.12570479667602</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.874386591917604</v>
+        <v>1.94021253591843</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.25845950756484</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-0.891666564413538</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.991850074462413</v>
+        <v>1.94715125760846</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.745034485701746</v>
+        <v>1.79844565847016</v>
       </c>
       <c r="K26" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L26" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>1</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
+        <v>0.003</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.833119449521514</v>
+        <v>-0.705984706386084</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.956735956026845</v>
+        <v>-0.874386591917604</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.686724130999037</v>
+        <v>-0.991850074462413</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.781319271666497</v>
+        <v>-0.745034485701746</v>
       </c>
       <c r="K27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L27" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2646,52 +2646,52 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B28" t="n">
-        <v>1.19985522408268</v>
+        <v>-0.833119449521514</v>
       </c>
       <c r="C28" t="n">
-        <v>1.22704010474098</v>
+        <v>-0.956735956026845</v>
       </c>
       <c r="D28" t="n">
-        <v>0.660345114837697</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.516245209330757</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.858204041971027</v>
+        <v>-0.686724130999037</v>
       </c>
       <c r="H28" t="n">
-        <v>1.12283826754789</v>
+        <v>-0.781319271666497</v>
       </c>
       <c r="K28" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="29">
@@ -2723,7 +2723,7 @@
         <v>21</v>
       </c>
       <c r="L29" t="n">
-        <v>0.027</v>
+        <v>0.031</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
@@ -2738,7 +2738,7 @@
         <v>1</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.028</v>
+        <v>0.03</v>
       </c>
       <c r="R29" t="n">
         <v>1</v>
@@ -2788,7 +2788,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="7">
@@ -2860,7 +2860,7 @@
         <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>0.003</v>
+        <v>0.011</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -2895,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -2907,7 +2907,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00900000000000001</v>
+        <v>0.00800000000000001</v>
       </c>
       <c r="N10" t="n">
         <v>1</v>
@@ -2948,7 +2948,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>0.04</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="15">
@@ -3020,7 +3020,7 @@
         <v>10</v>
       </c>
       <c r="J17" t="n">
-        <v>0.003</v>
+        <v>0.011</v>
       </c>
       <c r="K17" t="n">
         <v>1</v>
@@ -3037,7 +3037,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -3055,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -3067,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.00900000000000001</v>
+        <v>0.00800000000000001</v>
       </c>
       <c r="N18" t="n">
         <v>1</v>
@@ -3108,7 +3108,7 @@
         <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>0.04</v>
+        <v>0.032</v>
       </c>
     </row>
   </sheetData>
@@ -3239,7 +3239,7 @@
         <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>0.038</v>
+        <v>0.045</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.018</v>
+        <v>0.03</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -3256,16 +3256,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>1.14250407886275</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.829190064116273</v>
+        <v>2.89490911154142</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2.45886898989123</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -3283,19 +3283,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.04799250608893</v>
+        <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
         <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0.00700000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -3304,7 +3304,7 @@
         <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0.004</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="V4" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -3321,31 +3321,31 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>4.10888578062222</v>
+        <v>1.14250407886275</v>
       </c>
       <c r="C5" t="n">
-        <v>1.62247890478295</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>3.14996316978132</v>
+        <v>0.829190064116273</v>
       </c>
       <c r="E5" t="n">
-        <v>2.00125652434301</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.87130186758114</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.989208598964129</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2.01982336173465</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.90806254582862</v>
+        <v>1.04799250608893</v>
       </c>
       <c r="M5" t="s">
         <v>13</v>
@@ -3354,104 +3354,104 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>0.00700000000000001</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
         <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>3.16603426509598</v>
+        <v>4.10888578062222</v>
       </c>
       <c r="C6" t="n">
-        <v>1.65490371198132</v>
+        <v>1.62247890478295</v>
       </c>
       <c r="D6" t="n">
-        <v>3.33430591871162</v>
+        <v>3.14996316978132</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>2.00125652434301</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1.87130186758114</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.989208598964129</v>
       </c>
       <c r="I6" t="n">
-        <v>1.41840854849018</v>
+        <v>2.01982336173465</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1.90806254582862</v>
       </c>
       <c r="M6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>0.014</v>
       </c>
       <c r="U6" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.95338880814031</v>
+        <v>3.16603426509598</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1.65490371198132</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.21897172030882</v>
+        <v>3.33430591871162</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -3466,19 +3466,19 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-3.62467931612513</v>
+        <v>1.41840854849018</v>
       </c>
       <c r="J7" t="n">
-        <v>-1.87888518987501</v>
+        <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0.003</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -3496,24 +3496,24 @@
         <v>1</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="V7" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-1.95338880814031</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>2.89490911154142</v>
+        <v>-2.21897172030882</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -3522,22 +3522,22 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.45886898989123</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>-3.62467931612513</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>-1.87888518987501</v>
       </c>
       <c r="M8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0.002</v>
       </c>
       <c r="O8" t="n">
         <v>1</v>
@@ -3552,16 +3552,16 @@
         <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>0.00700000000000001</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
         <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -3636,46 +3636,46 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>0.255504425966364</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.395829236902551</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.367892772851468</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.633725066174825</v>
+        <v>-0.306106919927081</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.212376477069662</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.363137717889697</v>
       </c>
       <c r="I14" t="n">
-        <v>0.65543267937025</v>
+        <v>-0.313496666577396</v>
       </c>
       <c r="J14" t="n">
-        <v>0.433226754077361</v>
+        <v>-0.457976031448757</v>
       </c>
       <c r="M14" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="N14" t="n">
-        <v>0.014</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -3684,13 +3684,13 @@
         <v>1</v>
       </c>
       <c r="S14" t="n">
-        <v>0.00900000000000001</v>
+        <v>1</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -3698,46 +3698,46 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.255504425966364</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.395829236902551</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.367892772851468</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.306106919927081</v>
+        <v>0.633725066174825</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.212376477069662</v>
       </c>
       <c r="H15" t="n">
-        <v>0.363137717889697</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.313496666577396</v>
+        <v>0.65543267937025</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.457976031448757</v>
+        <v>0.433226754077361</v>
       </c>
       <c r="M15" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0.013</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -3746,13 +3746,13 @@
         <v>1</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>0.011</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -3760,61 +3760,61 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.192782060291915</v>
       </c>
       <c r="C16" t="n">
-        <v>0.184941849812833</v>
+        <v>0.471604592534232</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.302584868211831</v>
       </c>
       <c r="E16" t="n">
-        <v>0.164852583340881</v>
+        <v>0.652723369192019</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.203384473613883</v>
       </c>
       <c r="G16" t="n">
-        <v>0.119984924832152</v>
+        <v>0.371274554534395</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.146053585088546</v>
+        <v>0.63066666083799</v>
       </c>
       <c r="J16" t="n">
-        <v>0.154555757086521</v>
+        <v>0.442157904002588</v>
       </c>
       <c r="M16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>0.019</v>
       </c>
       <c r="S16" t="n">
-        <v>0.00600000000000001</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>1</v>
       </c>
       <c r="U16" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -3828,28 +3828,28 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.36551325506171</v>
+        <v>0.184941849812833</v>
       </c>
       <c r="D17" t="n">
-        <v>0.148188099288275</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.293242919268947</v>
+        <v>0.164852583340881</v>
       </c>
       <c r="F17" t="n">
-        <v>0.175026627910347</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.177407269087095</v>
+        <v>0.119984924832152</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0882756360152648</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1809823220877</v>
+        <v>0.146053585088546</v>
       </c>
       <c r="J17" t="n">
-        <v>0.159107885920796</v>
+        <v>0.154555757086521</v>
       </c>
       <c r="M17" t="s">
         <v>13</v>
@@ -3861,19 +3861,19 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="T17" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -3884,37 +3884,37 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.353292002311613</v>
+        <v>0.36551325506171</v>
       </c>
       <c r="D18" t="n">
-        <v>0.177912590416679</v>
+        <v>0.148188099288275</v>
       </c>
       <c r="E18" t="n">
-        <v>0.339925873837977</v>
+        <v>0.293242919268947</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.175026627910347</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.177407269087095</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.0882756360152648</v>
       </c>
       <c r="I18" t="n">
-        <v>0.160695486332862</v>
+        <v>0.1809823220877</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.159107885920796</v>
       </c>
       <c r="M18" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N18" t="n">
         <v>1</v>
@@ -3923,42 +3923,42 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>0.011</v>
       </c>
       <c r="U18" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.295912647607616</v>
+        <v>0.353292002311613</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.177912590416679</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.366555493337671</v>
+        <v>0.339925873837977</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -3970,13 +3970,13 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.584633658004126</v>
+        <v>0.160695486332862</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.335847326978072</v>
+        <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N19" t="n">
         <v>1</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0.003</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -4000,63 +4000,63 @@
         <v>1</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n">
-        <v>0.192782060291915</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.471604592534232</v>
+        <v>-0.295912647607616</v>
       </c>
       <c r="D20" t="n">
-        <v>0.302584868211831</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.652723369192019</v>
+        <v>-0.366555493337671</v>
       </c>
       <c r="F20" t="n">
-        <v>0.203384473613883</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.371274554534395</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.63066666083799</v>
+        <v>-0.584633658004126</v>
       </c>
       <c r="J20" t="n">
-        <v>0.442157904002588</v>
+        <v>-0.335847326978072</v>
       </c>
       <c r="M20" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N20" t="n">
-        <v>0.026</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0.023</v>
+        <v>1</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" t="n">
         <v>1</v>
@@ -4140,46 +4140,46 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B26" t="n">
-        <v>0.643087985714905</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.79726134736371</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.763181100068825</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.13408787750644</v>
+        <v>-0.57569461794757</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.464039084981584</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.674941193059475</v>
       </c>
       <c r="I26" t="n">
-        <v>1.24454741242831</v>
+        <v>-0.447485944050019</v>
       </c>
       <c r="J26" t="n">
-        <v>0.861485090334949</v>
+        <v>-0.841115283912022</v>
       </c>
       <c r="M26" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="N26" t="n">
-        <v>0.002</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>1</v>
       </c>
       <c r="S26" t="n">
-        <v>0.00900000000000001</v>
+        <v>1</v>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -4202,46 +4202,46 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.643087985714905</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>0.79726134736371</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>0.763181100068825</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.57569461794757</v>
+        <v>1.13408787750644</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.464039084981584</v>
       </c>
       <c r="H27" t="n">
-        <v>0.674941193059475</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.447485944050019</v>
+        <v>1.24454741242831</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.841115283912022</v>
+        <v>0.861485090334949</v>
       </c>
       <c r="M27" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>0.00600000000000001</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -4250,13 +4250,13 @@
         <v>1</v>
       </c>
       <c r="S27" t="n">
-        <v>1</v>
+        <v>0.011</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -4264,61 +4264,61 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>0.697679811791856</v>
       </c>
       <c r="C28" t="n">
-        <v>1.85825029384877</v>
+        <v>1.22447963815786</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.84562222657777</v>
       </c>
       <c r="E28" t="n">
-        <v>1.64296090097571</v>
+        <v>1.54242662264576</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>0.59121560727787</v>
       </c>
       <c r="G28" t="n">
-        <v>1.1924326469926</v>
+        <v>1.10431041958792</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.54205691208216</v>
+        <v>1.48677137259076</v>
       </c>
       <c r="J28" t="n">
-        <v>1.53067175020293</v>
+        <v>1.21817519114331</v>
       </c>
       <c r="M28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>0.015</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>1</v>
+        <v>0.019</v>
       </c>
       <c r="S28" t="n">
-        <v>0.00600000000000001</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>1</v>
       </c>
       <c r="U28" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -4332,28 +4332,28 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>2.62791432686729</v>
+        <v>1.85825029384877</v>
       </c>
       <c r="D29" t="n">
-        <v>1.64172736208292</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>2.09578708805032</v>
+        <v>1.64296090097571</v>
       </c>
       <c r="F29" t="n">
-        <v>2.19946020494188</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.3454943008254</v>
+        <v>1.1924326469926</v>
       </c>
       <c r="H29" t="n">
-        <v>0.879087436496135</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2.09816310498574</v>
+        <v>1.54205691208216</v>
       </c>
       <c r="J29" t="n">
-        <v>1.33232751069838</v>
+        <v>1.53067175020293</v>
       </c>
       <c r="M29" t="s">
         <v>13</v>
@@ -4365,19 +4365,19 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="T29" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -4388,37 +4388,37 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1.02624728922304</v>
+        <v>2.62791432686729</v>
       </c>
       <c r="D30" t="n">
-        <v>0.767929307677175</v>
+        <v>1.64172736208292</v>
       </c>
       <c r="E30" t="n">
-        <v>0.889170197092551</v>
+        <v>2.09578708805032</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>2.19946020494188</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1.3454943008254</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.879087436496135</v>
       </c>
       <c r="I30" t="n">
-        <v>0.718550230370396</v>
+        <v>2.09816310498574</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1.33232751069838</v>
       </c>
       <c r="M30" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N30" t="n">
         <v>1</v>
@@ -4427,42 +4427,42 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1</v>
+        <v>0.011</v>
       </c>
       <c r="U30" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.532126868204722</v>
+        <v>1.02624728922304</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.767929307677175</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.684255734670123</v>
+        <v>0.889170197092551</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -4474,13 +4474,13 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.627639258405546</v>
+        <v>0.718550230370396</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.674577810467025</v>
+        <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N31" t="n">
         <v>1</v>
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1</v>
+        <v>0.003</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -4504,63 +4504,63 @@
         <v>1</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B32" t="n">
-        <v>0.697679811791856</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1.22447963815786</v>
+        <v>-0.532126868204722</v>
       </c>
       <c r="D32" t="n">
-        <v>0.84562222657777</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1.54242662264576</v>
+        <v>-0.684255734670123</v>
       </c>
       <c r="F32" t="n">
-        <v>0.59121560727787</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.10431041958792</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.48677137259076</v>
+        <v>-0.627639258405546</v>
       </c>
       <c r="J32" t="n">
-        <v>1.21817519114331</v>
+        <v>-0.674577810467025</v>
       </c>
       <c r="M32" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N32" t="n">
-        <v>0.012</v>
+        <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0.023</v>
+        <v>1</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" t="n">
         <v>1</v>
@@ -4637,15 +4637,15 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.035</v>
+        <v>0.039</v>
       </c>
       <c r="J3" t="n">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
         <v>2.49186895353051</v>
@@ -4657,13 +4657,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -4762,119 +4762,119 @@
         <v>1</v>
       </c>
       <c r="N10" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
         <v>0.001</v>
       </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.693327077445613</v>
       </c>
       <c r="C11" t="n">
-        <v>0.341362859502</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.02012742234241</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.667831516412217</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.371918006689658</v>
+        <v>0.613170683813852</v>
       </c>
       <c r="H11" t="n">
-        <v>0.255302902636278</v>
+        <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0.003</v>
       </c>
       <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>0.004</v>
       </c>
-      <c r="N11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
       <c r="P11" t="n">
         <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.002</v>
+        <v>0.016</v>
       </c>
       <c r="R11" t="n">
-        <v>0.00900000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>0.693327077445613</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.341362859502</v>
       </c>
       <c r="D12" t="n">
-        <v>1.02012742234241</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.667831516412217</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.613170683813852</v>
+        <v>0.371918006689658</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.255302902636278</v>
       </c>
       <c r="K12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L12" t="n">
-        <v>0.003</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0.00700000000000001</v>
       </c>
       <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
         <v>0.001</v>
       </c>
-      <c r="O12" t="n">
-        <v>0.00800000000000001</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.016</v>
-      </c>
       <c r="R12" t="n">
-        <v>1</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="16">
@@ -4970,119 +4970,119 @@
         <v>1</v>
       </c>
       <c r="N18" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>0.001</v>
       </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.33511847196558</v>
       </c>
       <c r="C19" t="n">
-        <v>0.475842961333735</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.360569716892629</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.29227341506184</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.943787315668408</v>
+        <v>0.352891730692275</v>
       </c>
       <c r="H19" t="n">
-        <v>0.582624243867354</v>
+        <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0.003</v>
       </c>
       <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>0.004</v>
       </c>
-      <c r="N19" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
       <c r="P19" t="n">
         <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.002</v>
+        <v>0.016</v>
       </c>
       <c r="R19" t="n">
-        <v>0.00900000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B20" t="n">
-        <v>0.33511847196558</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.475842961333735</v>
       </c>
       <c r="D20" t="n">
-        <v>0.360569716892629</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.29227341506184</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.352891730692275</v>
+        <v>0.943787315668408</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.582624243867354</v>
       </c>
       <c r="K20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L20" t="n">
-        <v>0.003</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0.00700000000000001</v>
       </c>
       <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
         <v>0.001</v>
       </c>
-      <c r="O20" t="n">
-        <v>0.00800000000000001</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.016</v>
-      </c>
       <c r="R20" t="n">
-        <v>1</v>
+        <v>0.014</v>
       </c>
     </row>
   </sheetData>
@@ -5207,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>0.017</v>
+        <v>0.021</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -5218,58 +5218,58 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>2.46928653419277</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3.31177619895516</v>
+        <v>2.22325450145561</v>
       </c>
       <c r="D4" t="n">
-        <v>1.93621336634282</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.07521429526393</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.22389980563831</v>
+        <v>1.0687677634351</v>
       </c>
       <c r="G4" t="n">
-        <v>2.6660102503566</v>
+        <v>1.01039849097875</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.25478456017748</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.44225423868602</v>
+        <v>1.11305499337341</v>
       </c>
       <c r="L4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.00800000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -5277,66 +5277,66 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2.46928653419277</v>
       </c>
       <c r="C5" t="n">
-        <v>3.63422328609253</v>
+        <v>3.31177619895516</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1.93621336634282</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>2.07521429526393</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1.22389980563831</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2.6660102503566</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>-1.25478456017748</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1.44225423868602</v>
       </c>
       <c r="L5" t="s">
         <v>13</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3.63422328609253</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -5354,16 +5354,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.3724730888681</v>
+        <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>1</v>
@@ -5381,24 +5381,24 @@
         <v>1</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.27212842315286</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.846730041180613</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.06724129954183</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5407,25 +5407,25 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.956989507576094</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.71440662828254</v>
+        <v>2.3724730888681</v>
       </c>
       <c r="L7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>0.004</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -5434,66 +5434,66 @@
         <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>0.003</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
-        <v>0.017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>2.22325450145561</v>
+        <v>-2.27212842315286</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>-0.846730041180613</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>-1.06724129954183</v>
       </c>
       <c r="F8" t="n">
-        <v>1.0687677634351</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.01039849097875</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.956989507576094</v>
       </c>
       <c r="I8" t="n">
-        <v>1.11305499337341</v>
+        <v>-0.71440662828254</v>
       </c>
       <c r="L8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0.004</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.005</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>0.00800000000000001</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="T8" t="n">
-        <v>0.00600000000000001</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="12">
@@ -5562,149 +5562,149 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>1.35669107111863</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.25652210770355</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.73946938084447</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.05788260862779</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.688702571641858</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.46034917083429</v>
+        <v>-0.315781505890003</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.508503613053534</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.496291572277687</v>
+        <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1.35669107111863</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1.25652210770355</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.73946938084447</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1.05788260862779</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.688702571641858</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.315781505890003</v>
+        <v>1.46034917083429</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>-0.508503613053534</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.496291572277687</v>
       </c>
       <c r="L15" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" t="n">
-        <v>0.327655403156596</v>
+        <v>0.19850508983003</v>
       </c>
       <c r="C16" t="n">
-        <v>0.436191951025999</v>
+        <v>0.855576939720205</v>
       </c>
       <c r="D16" t="n">
-        <v>0.235808805342208</v>
+        <v>0.235679317826751</v>
       </c>
       <c r="E16" t="n">
-        <v>0.295306428040836</v>
+        <v>0.381687307176129</v>
       </c>
       <c r="F16" t="n">
-        <v>0.165449719002192</v>
+        <v>0.212784877941704</v>
       </c>
       <c r="G16" t="n">
-        <v>0.414969266398814</v>
+        <v>0.195429586703206</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.150383594710299</v>
+        <v>-0.17829228511804</v>
       </c>
       <c r="I16" t="n">
-        <v>0.181605710604064</v>
+        <v>0.227947815254184</v>
       </c>
       <c r="L16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -5733,66 +5733,66 @@
         <v>13</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.327655403156596</v>
       </c>
       <c r="C17" t="n">
-        <v>0.305609044279517</v>
+        <v>0.436191951025999</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.235808805342208</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.295306428040836</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.165449719002192</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.414969266398814</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-0.150383594710299</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.181605710604064</v>
       </c>
       <c r="L17" t="s">
         <v>13</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.305609044279517</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -5810,16 +5810,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.533079913611823</v>
+        <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>1</v>
@@ -5837,24 +5837,24 @@
         <v>1</v>
       </c>
       <c r="T18" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.359778736062838</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.121468312657299</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.164099691881796</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -5863,25 +5863,25 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.167909592056436</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.113591481414267</v>
+        <v>0.533079913611823</v>
       </c>
       <c r="L19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>0.008</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -5890,66 +5890,66 @@
         <v>1</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
-        <v>0.012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n">
-        <v>0.19850508983003</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.855576939720205</v>
+        <v>-0.359778736062838</v>
       </c>
       <c r="D20" t="n">
-        <v>0.235679317826751</v>
+        <v>-0.121468312657299</v>
       </c>
       <c r="E20" t="n">
-        <v>0.381687307176129</v>
+        <v>-0.164099691881796</v>
       </c>
       <c r="F20" t="n">
-        <v>0.212784877941704</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.195429586703206</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.17829228511804</v>
+        <v>0.167909592056436</v>
       </c>
       <c r="I20" t="n">
-        <v>0.227947815254184</v>
+        <v>-0.113591481414267</v>
       </c>
       <c r="L20" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
         <v>0.001</v>
       </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="24">
@@ -6018,149 +6018,149 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B26" t="n">
-        <v>0.662240487523896</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.07623603922351</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.596351179935258</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.729269965284233</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.474551395026478</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.556286555717449</v>
+        <v>-0.20598778063924</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.39137243181151</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.38761272084247</v>
+        <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.662240487523896</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1.07623603922351</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>0.596351179935258</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>0.729269965284233</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>0.474551395026478</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.20598778063924</v>
+        <v>0.556286555717449</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>-0.39137243181151</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.38761272084247</v>
       </c>
       <c r="L27" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" t="n">
-        <v>1.51355221428021</v>
+        <v>0.722412922696273</v>
       </c>
       <c r="C28" t="n">
-        <v>3.12780068483672</v>
+        <v>2.02955865387345</v>
       </c>
       <c r="D28" t="n">
-        <v>1.53537992569789</v>
+        <v>0.813043261293791</v>
       </c>
       <c r="E28" t="n">
-        <v>1.73928873461471</v>
+        <v>1.22912760912422</v>
       </c>
       <c r="F28" t="n">
-        <v>0.940659617497421</v>
+        <v>0.761563303449041</v>
       </c>
       <c r="G28" t="n">
-        <v>1.29289442934907</v>
+        <v>0.750424394549431</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.9175945177347</v>
+        <v>-0.637205449467502</v>
       </c>
       <c r="I28" t="n">
-        <v>1.13181578502475</v>
+        <v>0.793721414729595</v>
       </c>
       <c r="L28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -6189,40 +6189,40 @@
         <v>13</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.51355221428021</v>
       </c>
       <c r="C29" t="n">
-        <v>0.574430651990031</v>
+        <v>3.12780068483672</v>
       </c>
       <c r="D29" t="n">
-        <v>0.272494000911872</v>
+        <v>1.53537992569789</v>
       </c>
       <c r="E29" t="n">
-        <v>0.452557990887773</v>
+        <v>1.73928873461471</v>
       </c>
       <c r="F29" t="n">
-        <v>0.364789168412568</v>
+        <v>0.940659617497421</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.29289442934907</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-0.9175945177347</v>
       </c>
       <c r="I29" t="n">
-        <v>0.527984322702402</v>
+        <v>1.13181578502475</v>
       </c>
       <c r="L29" t="s">
         <v>13</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -6231,10 +6231,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -6242,22 +6242,22 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>0.574430651990031</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>0.272494000911872</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.452557990887773</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.364789168412568</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -6266,25 +6266,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.257783070994428</v>
+        <v>0.527984322702402</v>
       </c>
       <c r="L30" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0.022</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>1</v>
@@ -6293,15 +6293,15 @@
         <v>1</v>
       </c>
       <c r="T30" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B31" t="n">
-        <v>0.142245938810236</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -6322,13 +6322,13 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>0.257783070994428</v>
       </c>
       <c r="L31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M31" t="n">
-        <v>0.012</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
         <v>1</v>
@@ -6349,24 +6349,24 @@
         <v>1</v>
       </c>
       <c r="T31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>0.142245938810236</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.48022658420251</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.564001315534943</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.759168929115863</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -6375,25 +6375,25 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.774183676266612</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.529549745485631</v>
+        <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>0.017</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>0.008</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
@@ -6402,66 +6402,66 @@
         <v>1</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" t="n">
-        <v>0.012</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n">
-        <v>0.722412922696273</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>2.02955865387345</v>
+        <v>-1.48022658420251</v>
       </c>
       <c r="D33" t="n">
-        <v>0.813043261293791</v>
+        <v>-0.564001315534943</v>
       </c>
       <c r="E33" t="n">
-        <v>1.22912760912422</v>
+        <v>-0.759168929115863</v>
       </c>
       <c r="F33" t="n">
-        <v>0.761563303449041</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.750424394549431</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.637205449467502</v>
+        <v>0.774183676266612</v>
       </c>
       <c r="I33" t="n">
-        <v>0.793721414729595</v>
+        <v>-0.529549745485631</v>
       </c>
       <c r="L33" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="n">
         <v>0.001</v>
       </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
     </row>
   </sheetData>
@@ -6505,7 +6505,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -6514,7 +6514,7 @@
         <v>1.84453359735504</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -6537,7 +6537,7 @@
         <v>22</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="H4" t="n">
         <v>0.001</v>
@@ -6627,16 +6627,16 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="O10" t="n">
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="11">
@@ -6644,43 +6644,43 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.749775410402165</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.288007857710298</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-0.946985690618565</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.812455726838797</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0.028</v>
       </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.005</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0.017</v>
       </c>
       <c r="O11" t="n">
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="12">
@@ -6694,10 +6694,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.288007857710298</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.513589040731704</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -6715,10 +6715,10 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0.013</v>
       </c>
       <c r="N12" t="n">
-        <v>0.012</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
         <v>1</v>
@@ -6729,43 +6729,43 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.716836140496862</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.242257596437438</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-0.513589040731704</v>
       </c>
       <c r="F13" t="n">
-        <v>0.224368669027406</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.006</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0.016</v>
       </c>
       <c r="O13" t="n">
-        <v>0.019</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -6773,46 +6773,46 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>0.749775410402165</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-0.716836140496862</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-0.242257596437438</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.946985690618565</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.224368669027406</v>
       </c>
       <c r="G14" t="n">
-        <v>0.812455726838797</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K14" t="n">
-        <v>0.024</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0.002</v>
       </c>
       <c r="N14" t="n">
-        <v>0.015</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0.013</v>
       </c>
       <c r="P14" t="n">
-        <v>0.017</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -6908,19 +6908,19 @@
         <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.02</v>
+        <v>0.024</v>
       </c>
       <c r="O20" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
       </c>
       <c r="R20" t="n">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="21">
@@ -6928,7 +6928,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.231489864182329</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -6937,22 +6937,22 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.532925990350528</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>-0.31357435445741</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.247301476708337</v>
       </c>
       <c r="K21" t="s">
         <v>11</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0.028</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
@@ -6961,16 +6961,16 @@
         <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>0.005</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0.017</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
       </c>
       <c r="R21" t="n">
-        <v>1</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="22">
@@ -6978,149 +6978,149 @@
         <v>12</v>
       </c>
       <c r="B22" t="n">
-        <v>0.384145577112935</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.322384739432125</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.532925990350528</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.703831950326568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.354405158170085</v>
+        <v>0</v>
       </c>
       <c r="K22" t="s">
         <v>12</v>
       </c>
       <c r="L22" t="n">
-        <v>0.021</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.034</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
         <v>1</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0.013</v>
       </c>
       <c r="P22" t="n">
-        <v>0.013</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>0.024</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.384145577112935</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.322384739432125</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.36628496419406</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.821672242423494</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>-0.703831950326568</v>
       </c>
       <c r="G23" t="n">
-        <v>0.857935825704085</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.354405158170085</v>
       </c>
       <c r="K23" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0.025</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0.035</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>0.006</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0.016</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.019</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
-        <v>1</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.231489864182329</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>-1.36628496419406</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>-0.821672242423494</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.31357435445741</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.857935825704085</v>
       </c>
       <c r="H24" t="n">
-        <v>0.247301476708337</v>
+        <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L24" t="n">
-        <v>0.024</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0.002</v>
       </c>
       <c r="P24" t="n">
-        <v>0.015</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>0.013</v>
       </c>
       <c r="R24" t="n">
-        <v>0.017</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7250,83 +7250,83 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.145877241522523</v>
       </c>
       <c r="C10" t="n">
-        <v>0.428372129018499</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.383115327729253</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.596523587334335</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.220196540713125</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0.012</v>
       </c>
       <c r="K10" t="n">
-        <v>0.00700000000000001</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>0.145877241522523</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.428372129018499</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.383115327729253</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-0.596523587334335</v>
       </c>
       <c r="F11" t="n">
-        <v>0.220196540713125</v>
+        <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J11" t="n">
-        <v>0.015</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0.004</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="N11" t="n">
-        <v>0.021</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -7416,95 +7416,95 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.427892388856354</v>
       </c>
       <c r="C18" t="n">
-        <v>0.304142156652862</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.295468276073428</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.395534657273821</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.583206296842196</v>
       </c>
       <c r="J18" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0.012</v>
       </c>
       <c r="L18" t="n">
-        <v>0.00700000000000001</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>0.002</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>0.427892388856354</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.304142156652862</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.295468276073428</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-0.395534657273821</v>
       </c>
       <c r="G19" t="n">
-        <v>0.583206296842196</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="K19" t="n">
-        <v>0.015</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0.004</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="P19" t="n">
-        <v>0.021</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -7513,19 +7513,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.18715993347834</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.55730982293555</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K20" t="n">
         <v>1</v>
@@ -7534,13 +7534,13 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.015</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
         <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -7551,13 +7551,13 @@
         <v>13</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0997619300694993</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.18715993347834</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -7572,13 +7572,13 @@
         <v>13</v>
       </c>
       <c r="K21" t="n">
-        <v>0.00800000000000001</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0.019</v>
       </c>
       <c r="N21" t="n">
         <v>1</v>
@@ -7592,10 +7592,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.0997619300694993</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -7607,16 +7607,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.55730982293555</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0.00800000000000001</v>
       </c>
       <c r="L22" t="n">
         <v>1</v>
@@ -7628,7 +7628,7 @@
         <v>1</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -7672,7 +7672,7 @@
         <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>0.014</v>
+        <v>0.00600000000000001</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -7751,7 +7751,7 @@
         <v>23</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0.032</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -7811,7 +7811,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.003</v>
+        <v>0.012</v>
       </c>
       <c r="J10" t="n">
         <v>0.002</v>
@@ -7834,7 +7834,7 @@
         <v>23</v>
       </c>
       <c r="H11" t="n">
-        <v>0.033</v>
+        <v>0.011</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -7906,10 +7906,10 @@
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01</v>
+        <v>0.006</v>
       </c>
       <c r="K17" t="n">
-        <v>0.011</v>
+        <v>0.00700000000000001</v>
       </c>
       <c r="L17" t="n">
         <v>1</v>
@@ -7938,7 +7938,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0.003</v>
+        <v>0.011</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -7967,7 +7967,7 @@
         <v>23</v>
       </c>
       <c r="I19" t="n">
-        <v>0.033</v>
+        <v>0.011</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -8038,37 +8038,37 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1.22345576845257</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.88718241783995</v>
       </c>
       <c r="D3" t="n">
-        <v>1.56097864290875</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.43348961531993</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.00700000000000001</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
@@ -8076,37 +8076,37 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B4" t="n">
-        <v>1.22345576845257</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.88718241783995</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1.56097864290875</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1.43348961531993</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0.005</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0.002</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>1</v>
@@ -8147,7 +8147,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="6">
@@ -8185,7 +8185,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="10">
@@ -8248,107 +8248,107 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.196761735515906</v>
       </c>
       <c r="C12" t="n">
-        <v>0.25933824483048</v>
+        <v>0.150704764978973</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.456962438351379</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.119804402251462</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.406277555633094</v>
+        <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.016</v>
+        <v>0.01</v>
       </c>
       <c r="N12" t="n">
         <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0.018</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>0.196761735515906</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.150704764978973</v>
+        <v>0.25933824483048</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.456962438351379</v>
       </c>
       <c r="F13" t="n">
-        <v>0.119804402251462</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.406277555633094</v>
       </c>
       <c r="K13" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.003</v>
+        <v>0.014</v>
       </c>
       <c r="N13" t="n">
         <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.012</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -8372,7 +8372,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L14" t="n">
         <v>1</v>
@@ -8381,16 +8381,16 @@
         <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.02</v>
+        <v>0.014</v>
       </c>
       <c r="O14" t="n">
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.00700000000000001</v>
+        <v>0.00900000000000001</v>
       </c>
       <c r="R14" t="n">
         <v>1</v>
@@ -8440,7 +8440,7 @@
         <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.015</v>
+        <v>0.007</v>
       </c>
       <c r="R15" t="n">
         <v>1</v>
@@ -8478,7 +8478,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.021</v>
+        <v>0.025</v>
       </c>
       <c r="N16" t="n">
         <v>1</v>
@@ -8490,7 +8490,7 @@
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>1</v>
@@ -8562,187 +8562,187 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.888587233007306</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.322295354979313</v>
+        <v>0.66293027980877</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.589245618119927</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.544160867998626</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.484429447577663</v>
+        <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>1</v>
       </c>
       <c r="O22" t="n">
-        <v>0.016</v>
+        <v>0.01</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>1</v>
+        <v>0.018</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
       </c>
       <c r="T22" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B23" t="n">
-        <v>0.888587233007306</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.66293027980877</v>
+        <v>0.322295354979313</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.589245618119927</v>
       </c>
       <c r="G23" t="n">
-        <v>0.544160867998626</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.484429447577663</v>
       </c>
       <c r="L23" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
         <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>0.003</v>
+        <v>0.014</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0.012</v>
+        <v>1</v>
       </c>
       <c r="S23" t="n">
         <v>1</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.146549959240017</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.165741025330972</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.118815442521676</v>
+        <v>0.283564771855381</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.391093523693715</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.419367318082569</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.296262413997363</v>
       </c>
       <c r="L24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.00900000000000001</v>
+      </c>
+      <c r="T24" t="n">
         <v>0.015</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.104019985404349</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.146549959240017</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.165741025330972</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.118815442521676</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -8757,19 +8757,19 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M25" t="n">
-        <v>0.015</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>0.011</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
@@ -8789,7 +8789,7 @@
         <v>15</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-0.104019985404349</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -8798,25 +8798,25 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.283564771855381</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.391093523693715</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.419367318082569</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.296262413997363</v>
+        <v>0</v>
       </c>
       <c r="L26" t="s">
         <v>15</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0.017</v>
       </c>
       <c r="N26" t="n">
         <v>1</v>
@@ -8825,19 +8825,19 @@
         <v>1</v>
       </c>
       <c r="P26" t="n">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" t="n">
-        <v>0.00700000000000001</v>
+        <v>1</v>
       </c>
       <c r="T26" t="n">
-        <v>0.018</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -8890,7 +8890,7 @@
         <v>1</v>
       </c>
       <c r="S27" t="n">
-        <v>0.015</v>
+        <v>0.007</v>
       </c>
       <c r="T27" t="n">
         <v>1</v>
@@ -8934,7 +8934,7 @@
         <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>0.021</v>
+        <v>0.025</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
@@ -8946,7 +8946,7 @@
         <v>1</v>
       </c>
       <c r="S28" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>1</v>
@@ -9029,7 +9029,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.008</v>
+        <v>0.003</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -9040,66 +9040,66 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.78641907982273</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.380435257500324</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.710877405825178</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0.005</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>0.78641907982273</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-0.380435257500324</v>
       </c>
       <c r="E5" t="n">
-        <v>0.710877405825178</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0.006</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -9177,7 +9177,7 @@
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.008</v>
+        <v>0.003</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
@@ -9188,78 +9188,78 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.248312392924833</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.183362546672921</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.355614896452767</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.219191604243077</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.029</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.005</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>0.248312392924833</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-0.183362546672921</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-0.355614896452767</v>
       </c>
       <c r="F13" t="n">
-        <v>0.219191604243077</v>
+        <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0.006</v>
       </c>
       <c r="N13" t="n">
-        <v>0.005</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9324,7 +9324,7 @@
         <v>19</v>
       </c>
       <c r="H3" t="n">
-        <v>0.036</v>
+        <v>0.022</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -9335,54 +9335,54 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>1.82070596326067</v>
+        <v>-1.84711116772106</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-1.70792297941145</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.84711116772106</v>
+        <v>1.82070596326067</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.70792297941145</v>
+        <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.019</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -9453,13 +9453,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.198219082481099</v>
       </c>
       <c r="C12" t="n">
-        <v>0.21377573275933</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -9468,13 +9468,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0.004</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -9485,13 +9485,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B13" t="n">
-        <v>0.198219082481099</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.21377573275933</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -9500,13 +9500,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I13" t="n">
-        <v>0.00600000000000001</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0.002</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -9538,7 +9538,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0.00800000000000001</v>
+        <v>0.002</v>
       </c>
       <c r="K14" t="n">
         <v>1</v>
@@ -9573,7 +9573,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9621,31 +9621,31 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.667588224618812</v>
       </c>
       <c r="C21" t="n">
-        <v>0.832435212660277</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1.01933909787706</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0.004</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="L21" t="n">
         <v>1</v>
@@ -9653,31 +9653,31 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B22" t="n">
-        <v>0.667588224618812</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.832435212660277</v>
       </c>
       <c r="D22" t="n">
-        <v>1.01933909787706</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I22" t="n">
-        <v>0.00600000000000001</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0.002</v>
       </c>
       <c r="K22" t="n">
-        <v>0.024</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
         <v>1</v>
@@ -9706,7 +9706,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>0.00800000000000001</v>
+        <v>0.002</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -9741,7 +9741,7 @@
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
